--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:09:18+00:00</t>
+    <t>2024-04-10T09:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:47:47+00:00</t>
+    <t>2024-04-10T14:10:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Animal Class</t>
+    <t>Animal Class Code System</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-animal-class.xlsx
+++ b/CodeSystem-animal-class.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
